--- a/example_suspensionbridge/UserParametersManual.xlsx
+++ b/example_suspensionbridge/UserParametersManual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/oyvinpet_ntnu_no/Documents/Work/Python/Github/abaqustools/example_suspensionbridge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1827" documentId="8_{64EB9ED9-02D6-4503-8D27-71CC82355205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BEF24EB-71F6-4B29-8DEF-AC41743756D7}"/>
+  <xr:revisionPtr revIDLastSave="1829" documentId="8_{64EB9ED9-02D6-4503-8D27-71CC82355205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36B14828-4183-4F33-8349-F7D67EC30C20}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{B0070F92-6F78-4F7E-8A5C-8942A8E7EFB1}"/>
+    <workbookView xWindow="-165" yWindow="-165" windowWidth="51930" windowHeight="21330" activeTab="1" xr2:uid="{B0070F92-6F78-4F7E-8A5C-8942A8E7EFB1}"/>
   </bookViews>
   <sheets>
     <sheet name="ParameterList" sheetId="1" r:id="rId1"/>
@@ -1655,10 +1655,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BB4805-A9E8-43E2-B676-22A083A6DDB3}">
   <dimension ref="A1:I203"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="640" topLeftCell="A160" activePane="bottomLeft"/>
+    <sheetView topLeftCell="D1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1095" activePane="bottomLeft"/>
       <selection activeCell="H1" sqref="H1:H2"/>
-      <selection pane="bottomLeft" activeCell="H72" sqref="H72"/>
+      <selection pane="bottomLeft" activeCell="H171" sqref="H171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5159,8 +5159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8693251B-992A-4E16-ACBF-96EF9C0B475C}">
   <dimension ref="B2:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
